--- a/doc/工作量评估表.xlsx
+++ b/doc/工作量评估表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\ionic\SunshineLife\sunshinelife\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="540" windowWidth="18600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1296" yWindow="540" windowWidth="18600" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,23 +119,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需要确认有无鉴权，UI样式，有无快进暂停等功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>？？？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>qq分享，qq空间，微信好友，朋友圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">首次启动播放, 快速拉起, 无控制, 视频需集成到本地  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,12 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -279,11 +277,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,6 +301,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -562,18 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="55.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,210 +591,234 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2"/>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>1.5</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/doc/工作量评估表.xlsx
+++ b/doc/工作量评估表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\ionic\SunshineLife\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="540" windowWidth="18600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="1296" yWindow="540" windowWidth="18600" windowHeight="15456" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>调用支付宝支付和微信支付</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,7 +43,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作量</t>
+    <t>需求描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预估工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -49,7 +67,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求描述</t>
+    <t>1从本地选择图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2从相机拍照</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3如果图片宽度大于800,则等比压缩到800再上传</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -57,10 +83,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>调用支付宝支付和微信支付</t>
-  </si>
-  <si>
-    <t>分享</t>
+    <t>qq分享，qq空间，微信好友，朋友圈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三方登录</t>
@@ -87,30 +111,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>视频播放</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>首次启动播放, 快速拉起, 无控制, 视频需集成到本地,打包,测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包,测试等占用0.5天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>扫一扫</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1从本地选择图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2从相机拍照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3如果图片宽度大于800,则等比压缩到800再上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>扫一扫页面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,26 +140,14 @@
   </si>
   <si>
     <t>图片扫码异常处理：图片无效、未检测到二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要确认有无鉴权，UI样式，有无快进暂停等功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq分享，qq空间，微信好友，朋友圈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,14 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,12 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,11 +278,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,6 +305,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -565,226 +579,253 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="55.81640625" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>1.5</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>1.5</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9">
         <v>0.5</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="26" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K26" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/doc/工作量评估表.xlsx
+++ b/doc/工作量评估表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\ionic\SunshineLife\sunshinelife\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Source\ionic\SunshineLife\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,30 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调用支付宝支付和微信支付</t>
@@ -60,101 +60,113 @@
   </si>
   <si>
     <t>三方登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信、QQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.定到当前位置并显示地图。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2.调用后返回当前的位置经纬度。 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视频播放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扫一扫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1从本地选择图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2从相机拍照</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3如果图片宽度大于800,则等比压缩到800再上传</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扫一扫页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扫码调用相册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片扫码异常处理：图片无效、未检测到二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>qq分享，qq空间，微信好友，朋友圈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预估工作量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际工作量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">首次启动播放, 快速拉起, 无控制, 视频需集成到本地  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包,发版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据各个市场签名, 打包, 调试, 适配android7.0和7.0以下的设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据实际要发的版本评估,目前已经整合视频功能打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次启动播放, 快速拉起, 无控制逻辑, 视频需集成到本地, 横屏播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成友盟推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期参照绿农项目集成了shareSDK分享用时2天, 但是需要改成友盟分享.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期参照绿农项目集成了shareSDK第三方登录用时0.5天, 但是需要改成友盟分享.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -247,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,13 +267,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,19 +289,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -575,12 +584,13 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="55.81640625" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="7" max="7" width="64.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -594,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -620,7 +630,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -633,7 +645,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
@@ -646,7 +660,9 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -663,7 +679,9 @@
         <v>2</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
@@ -674,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -682,8 +700,12 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -698,9 +720,15 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="13">
@@ -743,14 +771,16 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>23</v>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -761,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1">
         <v>0.5</v>
@@ -775,7 +805,7 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -784,15 +814,17 @@
       <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="15"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="9" t="s">
         <v>21</v>
@@ -801,11 +833,13 @@
         <v>0.5</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="9" t="s">
         <v>22</v>
@@ -814,8 +848,33 @@
         <v>1</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
       <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="12:12">
       <c r="L26" s="7"/>
@@ -829,7 +888,7 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/工作量评估表.xlsx
+++ b/doc/工作量评估表.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$G$21</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -53,9 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调用支付宝支付和微信支付</t>
-  </si>
-  <si>
     <t>分享</t>
   </si>
   <si>
@@ -63,22 +63,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信、QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.定到当前位置并显示地图。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.调用后返回当前的位置经纬度。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>qq分享，qq空间，微信好友，朋友圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预估工作量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打包,发版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据各个市场签名, 打包, 调试, 适配android7.0和7.0以下的设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据实际要发的版本评估,目前已经整合视频功能打包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,6 +132,41 @@
   </si>
   <si>
     <t>前期参照绿农项目集成了shareSDK第三方登录用时0.5天, 但是需要改成友盟分享.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包,发版本,需求沟通,接口联调,机型适配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成支付宝和微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成微信、QQ登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图官方文档不是特别的详细,demo描述较少,集成比较费时.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.集成百度地图api,启动后定位当当前位置
+2.移动地图后，点击定位重新定位
+3.定位位置以列表形式展示周边区域，UI效果呈现及点击周边地点定位地图
+4.手动拖动地图，周边环境以列表形式的呈现
+5.点击搜索弹出软键盘布局的适配，包括按返回键后UI的处理，点击输入框外区域消失输入法，恢复初始状态
+6.输入文字后，相关信息的列表展示，点击定位到搜索位置
+7.定位后范围经纬度等信息
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成qq分享，qq空间，微信好友，朋友圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +197,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -295,11 +314,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,15 +621,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="3" max="3" width="56.26953125" customWidth="1"/>
+    <col min="4" max="5" width="13.26953125" customWidth="1"/>
     <col min="7" max="7" width="64.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,27 +645,27 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -636,10 +677,10 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -651,10 +692,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
@@ -673,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -689,22 +730,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -712,183 +753,242 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="14">
+        <v>3</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="9.6" customHeight="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="69" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
         <v>0.5</v>
       </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1">
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1">
+      <c r="E18" s="11"/>
+      <c r="F18" s="11">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11">
+        <v>2</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E20" s="10"/>
+      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="12">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="12">
+        <v>3</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="12">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="7"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="L31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <autoFilter ref="A1:G21"/>
+  <mergeCells count="11">
+    <mergeCell ref="C8:C15"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="E8:E15"/>
+    <mergeCell ref="F8:F15"/>
+    <mergeCell ref="G8:G15"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>